--- a/outputFile/SCOREALL.xlsx
+++ b/outputFile/SCOREALL.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1523437062692003</v>
+        <v>0.7237874301563123</v>
       </c>
     </row>
   </sheetData>

--- a/outputFile/SCOREALL.xlsx
+++ b/outputFile/SCOREALL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,9 +439,6 @@
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -452,9 +449,6 @@
           <t>model</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -465,9 +459,6 @@
           <t>param</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>242</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,9 +468,6 @@
         <is>
           <t>score</t>
         </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7237874301563123</v>
       </c>
     </row>
   </sheetData>
